--- a/AshokIT_3/DataFiles/DataFile.xlsx
+++ b/AshokIT_3/DataFiles/DataFile.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\git\AshokITTestingTraining\AshokIT_3\DataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{470D5B51-FBA0-4DD8-AA2A-87D9C51E2EA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB8BA565-27B1-4F51-925E-29A140014E8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="data" sheetId="1" r:id="rId1"/>
+    <sheet name="TestData" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -376,7 +376,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E4"/>
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/AshokIT_3/DataFiles/DataFile.xlsx
+++ b/AshokIT_3/DataFiles/DataFile.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\git\AshokITTestingTraining\AshokIT_3\DataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB8BA565-27B1-4F51-925E-29A140014E8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04694B54-DE17-4937-A047-11DEB7853A92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>Username</t>
   </si>
@@ -52,6 +52,15 @@
   </si>
   <si>
     <t>Sal</t>
+  </si>
+  <si>
+    <t>Run</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -373,82 +382,94 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="b">
+      <c r="D2" t="b">
         <v>1</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>123</v>
       </c>
-      <c r="E2" s="1">
+      <c r="F2" s="1">
         <v>25000</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="b">
+      <c r="D3" t="b">
         <v>0</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>345</v>
       </c>
-      <c r="E3" s="1">
+      <c r="F3" s="1">
         <v>34500</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" t="b">
+      <c r="D4" t="b">
         <v>0</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>567</v>
       </c>
-      <c r="E4" s="1">
+      <c r="F4" s="1">
         <v>45000</v>
       </c>
     </row>
